--- a/ReporteSemanal/Performance by NE JAMU-WASS week/Performance by NE JAMU week 37.xlsx
+++ b/ReporteSemanal/Performance by NE JAMU-WASS week/Performance by NE JAMU week 37.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\ReporteSemanal\Performance by NE JAMU-WASS week\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F61C75-DB31-4602-B036-5C188FBDC821}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D868DC-E116-4B57-9D1A-CD4A658F0491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FULL REPORT" sheetId="1" r:id="rId1"/>
     <sheet name="%TIMEOUT" sheetId="2" r:id="rId2"/>
     <sheet name="%FAILED" sheetId="3" r:id="rId3"/>
-    <sheet name="JM-PBK-TX-" sheetId="11" r:id="rId4"/>
-    <sheet name="BAR_COMG" sheetId="4" r:id="rId5"/>
+    <sheet name="JAM_MSAN" sheetId="11" r:id="rId4"/>
+    <sheet name="JAM_HUA2" sheetId="4" r:id="rId5"/>
     <sheet name="JAM_LDAP" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -25,12 +25,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="66">
   <si>
     <t>TOTAL</t>
   </si>
@@ -107,18 +112,6 @@
     <t>SOU_CVVM</t>
   </si>
   <si>
-    <t>SIMA_ARRAYBOUND_OUT:SIMA-response: Array Index Out Of Bounds Exception</t>
-  </si>
-  <si>
-    <t>SIMA_CANT_DELETE_SUB:Can't delete Subscriber from database</t>
-  </si>
-  <si>
-    <t>SIMA_PIN_ALRDYEXISTS:PIN already exists in the database</t>
-  </si>
-  <si>
-    <t>SIMAPIN_ALRDYEXISTS:PIN already exists in the database</t>
-  </si>
-  <si>
     <t>BAR_COMG</t>
   </si>
   <si>
@@ -164,9 +157,6 @@
     <t>JAM_SC14B</t>
   </si>
   <si>
-    <t>JAM_ZBRA</t>
-  </si>
-  <si>
     <t>TKI_HUAW</t>
   </si>
   <si>
@@ -182,46 +172,67 @@
     <t>CMV_CARL</t>
   </si>
   <si>
-    <t>CMV_MOBY</t>
-  </si>
-  <si>
     <t>BAR_BBRY</t>
   </si>
   <si>
-    <t>CMV_PTMR</t>
-  </si>
-  <si>
-    <t>JAM_BRA4</t>
-  </si>
-  <si>
     <t>JAM_PTMR</t>
   </si>
   <si>
-    <t>SIMA_INVALID_CRDAMNT:SIMA-response: Invalid Credit Amount. Less than 0</t>
-  </si>
-  <si>
-    <t>SIMA_SUBS_TO_EXPIRED:Prepaid Subscriber To has Expired</t>
-  </si>
-  <si>
-    <t>SIMA_CANT_UPDATE:Can't update Subscriber General Info in database</t>
-  </si>
-  <si>
-    <t>SIMA_TRY_MOD_SUB:Error trying to modify subscriber</t>
-  </si>
-  <si>
-    <t>SIMA_MUST_BE_PREPAID:Subscribers must be Prepaid</t>
-  </si>
-  <si>
-    <t>SIMA_SUBS_TO_IN_USE:Prepaid Subscriber To is in use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAIL:Settings for 3c906617ffc0@dial.tciway.tc could not be modified.The error code is 513        </t>
-  </si>
-  <si>
-    <t>FAIL:Settings for NULL could not be modified.The error code is 513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAIL:Search Schema  </t>
+    <t>CAY_BBRY</t>
+  </si>
+  <si>
+    <t>JAM_CAR3</t>
+  </si>
+  <si>
+    <t>JAM_CENT</t>
+  </si>
+  <si>
+    <t>JAM_DGPT</t>
+  </si>
+  <si>
+    <t>JAM_EAST</t>
+  </si>
+  <si>
+    <t>JAM_MONT</t>
+  </si>
+  <si>
+    <t>HUA_MSAN_NOUDETMATCH:No User Defined Exit Type Found</t>
+  </si>
+  <si>
+    <t>HUA_MSAN_PORTNOTCONF:The index of extended telephone number is not Configured with telephone number</t>
+  </si>
+  <si>
+    <t>HUA_MSAN_INSTNOTEXIS:The instance does not exist, or the feature is not supported or not configured</t>
+  </si>
+  <si>
+    <t>HUA_MSAN_TELALREXIST:The telephone number already exists.</t>
+  </si>
+  <si>
+    <t>HUA_MSAN_DEVNOTEXIST:The device does not exist</t>
+  </si>
+  <si>
+    <t>FAIL:Mandatory parameter DID or DEV</t>
+  </si>
+  <si>
+    <t>HUAWEI_NOUSERDATA:No user data.</t>
+  </si>
+  <si>
+    <t>HUAWEI_ALREADYEXISTS:The user already exists.</t>
+  </si>
+  <si>
+    <t>HUAWEI_NO_ODBDATA:No ODB data.</t>
+  </si>
+  <si>
+    <t>HUAWEI_NOUDETMATCH:No User Defined Exit Type Found.</t>
+  </si>
+  <si>
+    <t>HUAWEI_COMPLETE:INVOCATIONERROR: com.mslv.activation.cartridge.huawei.softSwitch.</t>
+  </si>
+  <si>
+    <t>prov.HuaweiProvisioning.qrySubscriberMod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIL:Search Schema     </t>
   </si>
 </sst>
 </file>
@@ -267,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -345,11 +356,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -373,8 +406,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,10 +667,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="C8:J46" totalsRowShown="0">
-  <autoFilter ref="C8:J46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="C9:J46">
-    <sortCondition descending="1" ref="C8:C46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="C8:J48" totalsRowShown="0">
+  <autoFilter ref="C8:J48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="C9:J48">
+    <sortCondition descending="1" ref="C8:C48"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="WOS" dataDxfId="29"/>
@@ -654,10 +693,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2034B2C5-049D-4F7D-A8CC-469711E832C3}" name="Tabla13" displayName="Tabla13" ref="B2:I40" totalsRowShown="0">
-  <autoFilter ref="B2:I40" xr:uid="{F36133E0-1D10-448C-8F5F-F59A14EFC021}"/>
-  <sortState ref="B3:I40">
-    <sortCondition descending="1" ref="F2:F40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2034B2C5-049D-4F7D-A8CC-469711E832C3}" name="Tabla13" displayName="Tabla13" ref="B2:I42" totalsRowShown="0">
+  <autoFilter ref="B2:I42" xr:uid="{F36133E0-1D10-448C-8F5F-F59A14EFC021}"/>
+  <sortState ref="B3:I42">
+    <sortCondition descending="1" ref="F2:F42"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{18B2137A-8B3C-46FA-80BA-751F5EF1A26D}" name="WOS" dataDxfId="21"/>
@@ -680,10 +719,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{340244DA-AB09-4170-B8B8-E320E385F2A3}" name="Tabla16" displayName="Tabla16" ref="B2:I40" totalsRowShown="0">
-  <autoFilter ref="B2:I40" xr:uid="{D467E664-69FE-4BD6-89D8-FB663C697635}"/>
-  <sortState ref="B3:I40">
-    <sortCondition descending="1" ref="E2:E40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{340244DA-AB09-4170-B8B8-E320E385F2A3}" name="Tabla16" displayName="Tabla16" ref="B2:I42" totalsRowShown="0">
+  <autoFilter ref="B2:I42" xr:uid="{D467E664-69FE-4BD6-89D8-FB663C697635}"/>
+  <sortState ref="B3:I42">
+    <sortCondition descending="1" ref="E2:E42"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C254810B-6794-4785-9147-BF803EC42F54}" name="WOS" dataDxfId="13"/>
@@ -706,8 +745,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla3" displayName="Tabla3" ref="B2:C12" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="B2:C12" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla3" displayName="Tabla3" ref="B2:C8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="B2:C8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="B3:C3">
     <sortCondition descending="1" ref="B2:B3"/>
   </sortState>
@@ -720,8 +759,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla6" displayName="Tabla6" ref="B2:C4" totalsRowShown="0">
-  <autoFilter ref="B2:C4" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla6" displayName="Tabla6" ref="B2:C8" totalsRowShown="0">
+  <autoFilter ref="B2:C8" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <sortState ref="B3:C3">
     <sortCondition descending="1" ref="B2:B3"/>
   </sortState>
@@ -1044,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="2">
-        <v>43353</v>
+        <v>43374</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1074,7 +1113,7 @@
       </c>
       <c r="B2">
         <f>SUM(Tabla1[WOS])</f>
-        <v>57273</v>
+        <v>71135</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1083,7 +1122,7 @@
       </c>
       <c r="B3">
         <f>SUM(Tabla1[COMPLETE])</f>
-        <v>47551</v>
+        <v>68037</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1092,7 +1131,7 @@
       </c>
       <c r="B4">
         <f>SUM(Tabla1[FAILED])</f>
-        <v>3330</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1101,7 +1140,7 @@
       </c>
       <c r="B5">
         <f>SUM(Tabla1[TIMEOUT])</f>
-        <v>6392</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1109,7 +1148,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>43359.999988425923</v>
+        <v>43380.999988425923</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1143,25 +1182,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
-        <v>12528</v>
+        <v>16657</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="5">
+        <v>16635</v>
+      </c>
+      <c r="F9" s="5">
         <v>22</v>
-      </c>
-      <c r="E9" s="5">
-        <v>10919</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1609</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.87156768837803322</v>
+        <v>0.99867923395569436</v>
       </c>
       <c r="I9" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.1284323116219668</v>
+        <v>1.3207660443056973E-3</v>
       </c>
       <c r="J9" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -1170,54 +1209,52 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
-        <v>10354</v>
+        <v>10680</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E10" s="5">
-        <v>4491</v>
+        <v>10202</v>
       </c>
       <c r="F10" s="5">
-        <v>234</v>
-      </c>
-      <c r="G10" s="5">
-        <v>5629</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.43374541240100445</v>
+        <v>0.95524344569288389</v>
       </c>
       <c r="I10" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>2.2599961367587407E-2</v>
+        <v>4.4756554307116107E-2</v>
       </c>
       <c r="J10" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.54365462623140814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
-        <v>7661</v>
+        <v>10061</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E11" s="5">
-        <v>7625</v>
+        <v>9966</v>
       </c>
       <c r="F11" s="5">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.99530087455945704</v>
+        <v>0.99055759864824566</v>
       </c>
       <c r="I11" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>4.6991254405430102E-3</v>
+        <v>9.4424013517542989E-3</v>
       </c>
       <c r="J11" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -1226,25 +1263,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
-        <v>6096</v>
+        <v>9691</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E12" s="5">
-        <v>6089</v>
+        <v>9256</v>
       </c>
       <c r="F12" s="5">
-        <v>7</v>
+        <v>435</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.99885170603674545</v>
+        <v>0.95511299143535244</v>
       </c>
       <c r="I12" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>1.1482939632545932E-3</v>
+        <v>4.4887008564647612E-2</v>
       </c>
       <c r="J12" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -1253,25 +1290,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" s="5">
-        <v>5642</v>
+        <v>8099</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5">
-        <v>5606</v>
+        <v>8093</v>
       </c>
       <c r="F13" s="5">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.99361928394186461</v>
+        <v>0.99925916779849366</v>
       </c>
       <c r="I13" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>6.380716058135413E-3</v>
+        <v>7.4083220150635877E-4</v>
       </c>
       <c r="J13" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -1280,25 +1317,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="5">
-        <v>4675</v>
+        <v>3782</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="5">
-        <v>4667</v>
+        <v>3760</v>
       </c>
       <c r="F14" s="5">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.99828877005347594</v>
+        <v>0.99418297197250127</v>
       </c>
       <c r="I14" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>1.7112299465240641E-3</v>
+        <v>5.8170280274986779E-3</v>
       </c>
       <c r="J14" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -1307,25 +1344,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="5">
-        <v>4482</v>
+        <v>3220</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E15" s="5">
-        <v>4158</v>
+        <v>3211</v>
       </c>
       <c r="F15" s="5">
-        <v>324</v>
+        <v>9</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.92771084337349397</v>
+        <v>0.99720496894409938</v>
       </c>
       <c r="I15" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>7.2289156626506021E-2</v>
+        <v>2.7950310559006213E-3</v>
       </c>
       <c r="J15" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -1334,25 +1371,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
-        <v>2165</v>
+        <v>3134</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E16" s="5">
-        <v>2057</v>
+        <v>3020</v>
       </c>
       <c r="F16" s="5">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.95011547344110858</v>
+        <v>0.9636247606892151</v>
       </c>
       <c r="I16" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>4.9884526558891452E-2</v>
+        <v>3.6375239310784936E-2</v>
       </c>
       <c r="J16" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -1361,79 +1398,79 @@
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="5">
-        <v>915</v>
+        <v>1299</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E17" s="5">
-        <v>481</v>
+        <v>1283</v>
       </c>
       <c r="F17" s="5">
-        <v>224</v>
-      </c>
-      <c r="G17" s="5">
-        <v>210</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" s="5"/>
       <c r="H17" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.52568306010928967</v>
+        <v>0.98768283294842185</v>
       </c>
       <c r="I17" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.24480874316939891</v>
+        <v>1.2317167051578136E-2</v>
       </c>
       <c r="J17" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.22950819672131148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18" s="5">
-        <v>479</v>
+        <v>1220</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5">
-        <v>479</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E18" s="5">
+        <v>632</v>
+      </c>
+      <c r="F18" s="5">
+        <v>588</v>
+      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.5180327868852459</v>
       </c>
       <c r="I18" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.4819672131147541</v>
       </c>
       <c r="J18" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C19" s="5">
-        <v>372</v>
+        <v>702</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E19" s="5">
-        <v>332</v>
+        <v>574</v>
       </c>
       <c r="F19" s="5">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.89247311827956988</v>
+        <v>0.81766381766381768</v>
       </c>
       <c r="I19" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.10752688172043011</v>
+        <v>0.18233618233618235</v>
       </c>
       <c r="J19" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -1442,131 +1479,135 @@
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C20" s="5">
-        <v>367</v>
+        <v>641</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E20" s="5">
-        <v>307</v>
+        <v>586</v>
       </c>
       <c r="F20" s="5">
-        <v>36</v>
-      </c>
-      <c r="G20" s="5">
-        <v>24</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.8365122615803815</v>
+        <v>0.91419656786271453</v>
       </c>
       <c r="I20" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>9.8092643051771122E-2</v>
+        <v>8.5803432137285487E-2</v>
       </c>
       <c r="J20" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>6.5395095367847406E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C21" s="5">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5">
-        <v>332</v>
-      </c>
-      <c r="G21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
+        <v>502</v>
+      </c>
       <c r="H21" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
         <v>0</v>
       </c>
       <c r="I21" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C22" s="5">
-        <v>293</v>
+        <v>427</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E22" s="5">
-        <v>288</v>
+        <v>2</v>
       </c>
       <c r="F22" s="5">
-        <v>5</v>
-      </c>
-      <c r="G22" s="5"/>
+        <v>409</v>
+      </c>
+      <c r="G22" s="5">
+        <v>16</v>
+      </c>
       <c r="H22" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.98293515358361772</v>
+        <v>4.6838407494145199E-3</v>
       </c>
       <c r="I22" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>1.7064846416382253E-2</v>
+        <v>0.95784543325526927</v>
       </c>
       <c r="J22" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>3.7470725995316159E-2</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C23" s="5">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E23" s="5">
+        <v>216</v>
+      </c>
       <c r="F23" s="5">
-        <v>175</v>
-      </c>
-      <c r="G23" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2</v>
+      </c>
       <c r="H23" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.85375494071146241</v>
       </c>
       <c r="I23" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0.13833992094861661</v>
       </c>
       <c r="J23" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>7.9051383399209481E-3</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C24" s="5">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E24" s="5">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="F24" s="5">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.57058823529411762</v>
+        <v>0.86842105263157898</v>
       </c>
       <c r="I24" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.42941176470588233</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="J24" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -1575,25 +1616,25 @@
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C25" s="5">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E25" s="5">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F25" s="5">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.84615384615384615</v>
+        <v>0.93220338983050843</v>
       </c>
       <c r="I25" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.15384615384615385</v>
+        <v>6.7796610169491525E-2</v>
       </c>
       <c r="J25" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -1602,52 +1643,52 @@
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="5">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E26" s="5">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F26" s="5">
-        <v>3</v>
-      </c>
-      <c r="G26" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="G26" s="5">
+        <v>16</v>
+      </c>
       <c r="H26" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.96907216494845361</v>
+        <v>0.73043478260869565</v>
       </c>
       <c r="I26" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>3.0927835051546393E-2</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="J26" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.1391304347826087</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C27" s="5">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E27" s="5">
-        <v>78</v>
-      </c>
-      <c r="F27" s="5">
-        <v>14</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.84782608695652173</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.15217391304347827</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -1656,52 +1697,54 @@
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C28" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5">
+        <v>42</v>
+      </c>
       <c r="F28" s="5">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G28" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H28" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="I28" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.63265306122448983</v>
+        <v>0.12</v>
       </c>
       <c r="J28" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.36734693877551022</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C29" s="5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.97560975609756095</v>
+        <v>0.95348837209302328</v>
       </c>
       <c r="I29" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>2.4390243902439025E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="J29" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -1710,25 +1753,23 @@
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C30" s="5">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="5">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E30" s="5"/>
       <c r="F30" s="5">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.88888888888888884</v>
+        <v>0</v>
       </c>
       <c r="I30" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="J30" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -1737,25 +1778,23 @@
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C31" s="5">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="5">
-        <v>25</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E31" s="5"/>
       <c r="F31" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.92592592592592593</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>7.407407407407407E-2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -1764,23 +1803,25 @@
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C32" s="5">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E32" s="5">
-        <v>26</v>
-      </c>
-      <c r="F32" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="F32" s="5">
+        <v>7</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0.78125</v>
       </c>
       <c r="I32" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.21875</v>
       </c>
       <c r="J32" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -1789,50 +1830,52 @@
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E33" s="5">
+        <v>21</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5"/>
       <c r="H33" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="I33" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="J33" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
+        <v>17</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="5">
         <v>16</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="5">
-        <v>12</v>
-      </c>
       <c r="F34" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.75</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="I34" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.25</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="J34" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -1841,13 +1884,13 @@
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E35" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -1866,25 +1909,23 @@
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C36" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E36" s="5">
-        <v>11</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.91666666666666663</v>
+        <v>1</v>
       </c>
       <c r="I36" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -1893,65 +1934,63 @@
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C37" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="5">
-        <v>4</v>
-      </c>
-      <c r="F37" s="5">
-        <v>3</v>
-      </c>
-      <c r="G37" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5">
+        <v>6</v>
+      </c>
       <c r="H37" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="I37" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0.42857142857142855</v>
+        <v>0</v>
       </c>
       <c r="J37" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C38" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5">
-        <v>5</v>
-      </c>
+      <c r="F38" s="5">
+        <v>3</v>
+      </c>
+      <c r="G38" s="5"/>
       <c r="H38" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
         <v>0</v>
       </c>
       <c r="I38" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C39" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E39" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -1970,13 +2009,13 @@
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C40" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E40" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -1995,15 +2034,15 @@
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C41" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
@@ -2023,20 +2062,20 @@
         <v>2</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5">
+        <v>52</v>
+      </c>
+      <c r="E42" s="5">
         <v>2</v>
       </c>
+      <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
@@ -2048,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5">
@@ -2073,16 +2112,16 @@
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
       <c r="F44" s="5"/>
-      <c r="G44" s="5">
-        <v>1</v>
-      </c>
+      <c r="G44" s="5"/>
       <c r="H44" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
@@ -2090,7 +2129,7 @@
       </c>
       <c r="J44" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
@@ -2098,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -2123,28 +2162,78 @@
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="5">
-        <v>1</v>
-      </c>
-      <c r="F46" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
       <c r="G46" s="5"/>
       <c r="H46" s="3">
         <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="3">
         <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="3">
+        <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
+        <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="3">
+        <f>Tabla1[[#This Row],[COMPLETE]]/Tabla1[[#This Row],[WOS]]</f>
+        <v>1</v>
+      </c>
+      <c r="I48" s="3">
+        <f>Tabla1[[#This Row],[FAILED]]/Tabla1[[#This Row],[WOS]]</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <f>Tabla1[[#This Row],[TIMEOUT]]/Tabla1[[#This Row],[WOS]]</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I9:J46">
+  <conditionalFormatting sqref="I9:J48">
     <cfRule type="colorScale" priority="343">
       <colorScale>
         <cfvo type="min"/>
@@ -2156,7 +2245,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H46">
+  <conditionalFormatting sqref="H9:H48">
     <cfRule type="colorScale" priority="344">
       <colorScale>
         <cfvo type="min"/>
@@ -2168,7 +2257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H46">
+  <conditionalFormatting sqref="H8:H48">
     <cfRule type="colorScale" priority="345">
       <colorScale>
         <cfvo type="min"/>
@@ -2190,10 +2279,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:I40"/>
+  <dimension ref="B2:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:I42"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2226,179 +2315,181 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
-        <v>10354</v>
+        <v>502</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4491</v>
-      </c>
-      <c r="E3" s="5">
-        <v>234</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="5">
-        <v>5629</v>
+        <v>502</v>
       </c>
       <c r="G3" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.43374541240100445</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>2.2599961367587407E-2</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.54365462623140814</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
-        <v>479</v>
+        <v>115</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="D4" s="5">
+        <v>84</v>
+      </c>
+      <c r="E4" s="5">
+        <v>15</v>
+      </c>
       <c r="F4" s="5">
-        <v>479</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.73043478260869565</v>
       </c>
       <c r="H4" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="I4" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0.1391304347826087</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
-        <v>915</v>
+        <v>427</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5">
-        <v>481</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5">
-        <v>224</v>
+        <v>409</v>
       </c>
       <c r="F5" s="5">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.52568306010928967</v>
+        <v>4.6838407494145199E-3</v>
       </c>
       <c r="H5" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.24480874316939891</v>
+        <v>0.95784543325526927</v>
       </c>
       <c r="I5" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.22950819672131148</v>
+        <v>3.7470725995316159E-2</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
-        <v>367</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="5">
-        <v>307</v>
-      </c>
-      <c r="E6" s="5">
-        <v>36</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="5">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G6" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.8365122615803815</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>9.8092643051771122E-2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>6.5395095367847406E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="D7" s="5">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6</v>
+      </c>
       <c r="F7" s="5">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G7" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="H7" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I7" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="D8" s="5">
+        <v>216</v>
+      </c>
       <c r="E8" s="5">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F8" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G8" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.85375494071146241</v>
       </c>
       <c r="H8" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.63265306122448983</v>
+        <v>0.13833992094861661</v>
       </c>
       <c r="I8" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.36734693877551022</v>
+        <v>7.9051383399209481E-3</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2415,15 +2506,15 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2443,72 +2534,70 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
         <v>0</v>
       </c>
       <c r="H11" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
+      <c r="E12" s="5">
+        <v>35</v>
+      </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
         <v>0</v>
       </c>
       <c r="H12" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
-        <v>12528</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5">
-        <v>10919</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1609</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.87156768837803322</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.1284323116219668</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2517,25 +2606,25 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
-        <v>7661</v>
+        <v>3220</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D14" s="5">
-        <v>7625</v>
+        <v>3211</v>
       </c>
       <c r="E14" s="5">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.99530087455945704</v>
+        <v>0.99720496894409938</v>
       </c>
       <c r="H14" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>4.6991254405430102E-3</v>
+        <v>2.7950310559006213E-3</v>
       </c>
       <c r="I14" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2544,25 +2633,25 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
-        <v>6096</v>
+        <v>3134</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5">
-        <v>6089</v>
+        <v>3020</v>
       </c>
       <c r="E15" s="5">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.99885170603674545</v>
+        <v>0.9636247606892151</v>
       </c>
       <c r="H15" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>1.1482939632545932E-3</v>
+        <v>3.6375239310784936E-2</v>
       </c>
       <c r="I15" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2571,25 +2660,25 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
-        <v>5642</v>
+        <v>3782</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D16" s="5">
-        <v>5606</v>
+        <v>3760</v>
       </c>
       <c r="E16" s="5">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.99361928394186461</v>
+        <v>0.99418297197250127</v>
       </c>
       <c r="H16" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>6.380716058135413E-3</v>
+        <v>5.8170280274986779E-3</v>
       </c>
       <c r="I16" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2598,25 +2687,23 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
-        <v>4675</v>
+        <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D17" s="5">
-        <v>4667</v>
-      </c>
-      <c r="E17" s="5">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.99828877005347594</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>1.7112299465240641E-3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2625,25 +2712,23 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
-        <v>4482</v>
+        <v>32</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="5">
-        <v>4158</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="5">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.92771084337349397</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>7.2289156626506021E-2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2652,25 +2737,23 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
-        <v>2165</v>
+        <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D19" s="5">
-        <v>2057</v>
-      </c>
-      <c r="E19" s="5">
-        <v>108</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.95011547344110858</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>4.9884526558891452E-2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2679,25 +2762,25 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
-        <v>372</v>
+        <v>1299</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D20" s="5">
-        <v>332</v>
+        <v>1283</v>
       </c>
       <c r="E20" s="5">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.89247311827956988</v>
+        <v>0.98768283294842185</v>
       </c>
       <c r="H20" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.10752688172043011</v>
+        <v>1.2317167051578136E-2</v>
       </c>
       <c r="I20" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2706,23 +2789,25 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
-        <v>332</v>
+        <v>702</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="D21" s="5">
+        <v>574</v>
+      </c>
       <c r="E21" s="5">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.81766381766381768</v>
       </c>
       <c r="H21" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0.18233618233618235</v>
       </c>
       <c r="I21" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2731,25 +2816,23 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
-        <v>293</v>
+        <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="5">
-        <v>288</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.98293515358361772</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>1.7064846416382253E-2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2758,23 +2841,23 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5">
-        <v>175</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2783,25 +2866,23 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D24" s="5">
-        <v>97</v>
-      </c>
-      <c r="E24" s="5">
-        <v>73</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.57058823529411762</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.42941176470588233</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2810,25 +2891,23 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="5">
-        <v>99</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.84615384615384615</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.15384615384615385</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2837,25 +2916,25 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D26" s="5">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="E26" s="5">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.96907216494845361</v>
+        <v>0.86842105263157898</v>
       </c>
       <c r="H26" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>3.0927835051546393E-2</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="I26" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2864,25 +2943,23 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="5">
-        <v>78</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.84782608695652173</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.15217391304347827</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2891,25 +2968,25 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
-        <v>41</v>
+        <v>16657</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D28" s="5">
-        <v>40</v>
+        <v>16635</v>
       </c>
       <c r="E28" s="5">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.97560975609756095</v>
+        <v>0.99867923395569436</v>
       </c>
       <c r="H28" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>2.4390243902439025E-2</v>
+        <v>1.3207660443056973E-3</v>
       </c>
       <c r="I28" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2918,25 +2995,25 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
-        <v>27</v>
+        <v>10680</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D29" s="5">
-        <v>24</v>
+        <v>10202</v>
       </c>
       <c r="E29" s="5">
-        <v>3</v>
+        <v>478</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.88888888888888884</v>
+        <v>0.95524344569288389</v>
       </c>
       <c r="H29" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.1111111111111111</v>
+        <v>4.4756554307116107E-2</v>
       </c>
       <c r="I29" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2945,25 +3022,25 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
-        <v>27</v>
+        <v>9691</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="5">
-        <v>25</v>
+        <v>9256</v>
       </c>
       <c r="E30" s="5">
-        <v>2</v>
+        <v>435</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.92592592592592593</v>
+        <v>0.95511299143535244</v>
       </c>
       <c r="H30" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>7.407407407407407E-2</v>
+        <v>4.4887008564647612E-2</v>
       </c>
       <c r="I30" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2972,23 +3049,25 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D31" s="5">
-        <v>26</v>
-      </c>
-      <c r="E31" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="E31" s="5">
+        <v>7</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0.78125</v>
       </c>
       <c r="H31" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.21875</v>
       </c>
       <c r="I31" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -2997,25 +3076,23 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D32" s="5">
-        <v>12</v>
-      </c>
-      <c r="E32" s="5">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H32" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -3024,23 +3101,25 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
-        <v>12</v>
+        <v>1220</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D33" s="5">
-        <v>12</v>
-      </c>
-      <c r="E33" s="5"/>
+        <v>632</v>
+      </c>
+      <c r="E33" s="5">
+        <v>588</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0.5180327868852459</v>
       </c>
       <c r="H33" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.4819672131147541</v>
       </c>
       <c r="I33" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -3049,25 +3128,23 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D34" s="5">
-        <v>11</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.91666666666666663</v>
+        <v>1</v>
       </c>
       <c r="H34" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -3076,25 +3153,25 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D35" s="5">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="E35" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.5714285714285714</v>
+        <v>0.93220338983050843</v>
       </c>
       <c r="H35" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0.42857142857142855</v>
+        <v>6.7796610169491525E-2</v>
       </c>
       <c r="I35" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -3103,23 +3180,25 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
-        <v>4</v>
+        <v>8099</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D36" s="5">
-        <v>4</v>
-      </c>
-      <c r="E36" s="5"/>
+        <v>8093</v>
+      </c>
+      <c r="E36" s="5">
+        <v>6</v>
+      </c>
       <c r="F36" s="5"/>
       <c r="G36" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0.99925916779849366</v>
       </c>
       <c r="H36" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>7.4083220150635877E-4</v>
       </c>
       <c r="I36" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -3128,23 +3207,25 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D37" s="5">
-        <v>4</v>
-      </c>
-      <c r="E37" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
       <c r="F37" s="5"/>
       <c r="G37" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="H37" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="I37" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -3153,23 +3234,25 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
-        <v>2</v>
+        <v>10061</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="D38" s="5">
+        <v>9966</v>
+      </c>
       <c r="E38" s="5">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.99055759864824566</v>
       </c>
       <c r="H38" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>9.4424013517542989E-3</v>
       </c>
       <c r="I38" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -3178,23 +3261,25 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="D39" s="5">
+        <v>21</v>
+      </c>
       <c r="E39" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="H39" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="I39" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
@@ -3203,31 +3288,85 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D40" s="5">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2</v>
+      </c>
       <c r="F40" s="5"/>
       <c r="G40" s="3">
         <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0.95348837209302328</v>
       </c>
       <c r="H40" s="3">
         <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="I40" s="3">
         <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
         <v>0</v>
       </c>
     </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="5">
+        <v>641</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="5">
+        <v>586</v>
+      </c>
+      <c r="E41" s="5">
+        <v>55</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="3">
+        <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
+        <v>0.91419656786271453</v>
+      </c>
+      <c r="H41" s="3">
+        <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
+        <v>8.5803432137285487E-2</v>
+      </c>
+      <c r="I41" s="3">
+        <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="3">
+        <f>Tabla13[[#This Row],[COMPLETE]]/Tabla13[[#This Row],[WOS]]</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
+        <f>Tabla13[[#This Row],[FAILED]]/Tabla13[[#This Row],[WOS]]</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <f>Tabla13[[#This Row],[TIMEOUT]]/Tabla13[[#This Row],[WOS]]</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H3:I40">
+  <conditionalFormatting sqref="H3:I42">
     <cfRule type="colorScale" priority="346">
       <colorScale>
         <cfvo type="min"/>
@@ -3239,7 +3378,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G40">
+  <conditionalFormatting sqref="G3:G42">
     <cfRule type="colorScale" priority="347">
       <colorScale>
         <cfvo type="min"/>
@@ -3251,7 +3390,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G40">
+  <conditionalFormatting sqref="G2:G42">
     <cfRule type="colorScale" priority="348">
       <colorScale>
         <cfvo type="min"/>
@@ -3272,7 +3411,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:I40"/>
+  <dimension ref="B2:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -3313,25 +3452,25 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
-        <v>12528</v>
+        <v>1220</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5">
-        <v>10919</v>
+        <v>632</v>
       </c>
       <c r="E3" s="5">
-        <v>1609</v>
+        <v>588</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.87156768837803322</v>
+        <v>0.5180327868852459</v>
       </c>
       <c r="H3" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.1284323116219668</v>
+        <v>0.4819672131147541</v>
       </c>
       <c r="I3" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3340,23 +3479,25 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
-        <v>332</v>
+        <v>10680</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10202</v>
+      </c>
       <c r="E4" s="5">
-        <v>332</v>
+        <v>478</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.95524344569288389</v>
       </c>
       <c r="H4" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>4.4756554307116107E-2</v>
       </c>
       <c r="I4" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3365,25 +3506,25 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
-        <v>4482</v>
+        <v>9691</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="5">
-        <v>4158</v>
+        <v>9256</v>
       </c>
       <c r="E5" s="5">
-        <v>324</v>
+        <v>435</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.92771084337349397</v>
+        <v>0.95511299143535244</v>
       </c>
       <c r="H5" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>7.2289156626506021E-2</v>
+        <v>4.4887008564647612E-2</v>
       </c>
       <c r="I5" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3392,81 +3533,81 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
-        <v>10354</v>
+        <v>427</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5">
-        <v>4491</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
-        <v>234</v>
+        <v>409</v>
       </c>
       <c r="F6" s="5">
-        <v>5629</v>
+        <v>16</v>
       </c>
       <c r="G6" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.43374541240100445</v>
+        <v>4.6838407494145199E-3</v>
       </c>
       <c r="H6" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>2.2599961367587407E-2</v>
+        <v>0.95784543325526927</v>
       </c>
       <c r="I6" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.54365462623140814</v>
+        <v>3.7470725995316159E-2</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
-        <v>915</v>
+        <v>702</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5">
-        <v>481</v>
+        <v>574</v>
       </c>
       <c r="E7" s="5">
-        <v>224</v>
-      </c>
-      <c r="F7" s="5">
-        <v>210</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.52568306010928967</v>
+        <v>0.81766381766381768</v>
       </c>
       <c r="H7" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.24480874316939891</v>
+        <v>0.18233618233618235</v>
       </c>
       <c r="I7" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.22950819672131148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
-        <v>175</v>
+        <v>3134</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3020</v>
+      </c>
       <c r="E8" s="5">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.9636247606892151</v>
       </c>
       <c r="H8" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>3.6375239310784936E-2</v>
       </c>
       <c r="I8" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3475,25 +3616,25 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
-        <v>2165</v>
+        <v>10061</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5">
-        <v>2057</v>
+        <v>9966</v>
       </c>
       <c r="E9" s="5">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.95011547344110858</v>
+        <v>0.99055759864824566</v>
       </c>
       <c r="H9" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>4.9884526558891452E-2</v>
+        <v>9.4424013517542989E-3</v>
       </c>
       <c r="I9" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3502,25 +3643,25 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
-        <v>170</v>
+        <v>641</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5">
-        <v>97</v>
+        <v>586</v>
       </c>
       <c r="E10" s="5">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.57058823529411762</v>
+        <v>0.91419656786271453</v>
       </c>
       <c r="H10" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.42941176470588233</v>
+        <v>8.5803432137285487E-2</v>
       </c>
       <c r="I10" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3529,25 +3670,23 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
-        <v>372</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="5">
-        <v>332</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.89247311827956988</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.10752688172043011</v>
+        <v>1</v>
       </c>
       <c r="I11" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3556,52 +3695,52 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
-        <v>7661</v>
+        <v>253</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D12" s="5">
-        <v>7625</v>
+        <v>216</v>
       </c>
       <c r="E12" s="5">
-        <v>36</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
       <c r="G12" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.99530087455945704</v>
+        <v>0.85375494071146241</v>
       </c>
       <c r="H12" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>4.6991254405430102E-3</v>
+        <v>0.13833992094861661</v>
       </c>
       <c r="I12" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>7.9051383399209481E-3</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
-        <v>5642</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
         <v>32</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5606</v>
-      </c>
-      <c r="E13" s="5">
-        <v>36</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.99361928394186461</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>6.380716058135413E-3</v>
+        <v>1</v>
       </c>
       <c r="I13" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3610,81 +3749,79 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
-        <v>367</v>
+        <v>190</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5">
-        <v>307</v>
+        <v>165</v>
       </c>
       <c r="E14" s="5">
-        <v>36</v>
-      </c>
-      <c r="F14" s="5">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.8365122615803815</v>
+        <v>0.86842105263157898</v>
       </c>
       <c r="H14" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>9.8092643051771122E-2</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="I14" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>6.5395095367847406E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
-        <v>49</v>
+        <v>3782</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3760</v>
+      </c>
       <c r="E15" s="5">
-        <v>31</v>
-      </c>
-      <c r="F15" s="5">
-        <v>18</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.99418297197250127</v>
       </c>
       <c r="H15" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.63265306122448983</v>
+        <v>5.8170280274986779E-3</v>
       </c>
       <c r="I15" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.36734693877551022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
-        <v>117</v>
+        <v>16657</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D16" s="5">
-        <v>99</v>
+        <v>16635</v>
       </c>
       <c r="E16" s="5">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.84615384615384615</v>
+        <v>0.99867923395569436</v>
       </c>
       <c r="H16" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.15384615384615385</v>
+        <v>1.3207660443056973E-3</v>
       </c>
       <c r="I16" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3693,25 +3830,25 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
-        <v>92</v>
+        <v>1299</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D17" s="5">
-        <v>78</v>
+        <v>1283</v>
       </c>
       <c r="E17" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.84782608695652173</v>
+        <v>0.98768283294842185</v>
       </c>
       <c r="H17" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.15217391304347827</v>
+        <v>1.2317167051578136E-2</v>
       </c>
       <c r="I17" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3720,52 +3857,54 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
-        <v>4675</v>
+        <v>115</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D18" s="5">
-        <v>4667</v>
+        <v>84</v>
       </c>
       <c r="E18" s="5">
-        <v>8</v>
-      </c>
-      <c r="F18" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="F18" s="5">
+        <v>16</v>
+      </c>
       <c r="G18" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.99828877005347594</v>
+        <v>0.73043478260869565</v>
       </c>
       <c r="H18" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>1.7112299465240641E-3</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="I18" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.1391304347826087</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
-        <v>6096</v>
+        <v>3220</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D19" s="5">
-        <v>6089</v>
+        <v>3211</v>
       </c>
       <c r="E19" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.99885170603674545</v>
+        <v>0.99720496894409938</v>
       </c>
       <c r="H19" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>1.1482939632545932E-3</v>
+        <v>2.7950310559006213E-3</v>
       </c>
       <c r="I19" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3774,25 +3913,25 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
-        <v>293</v>
+        <v>118</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D20" s="5">
-        <v>288</v>
+        <v>110</v>
       </c>
       <c r="E20" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.98293515358361772</v>
+        <v>0.93220338983050843</v>
       </c>
       <c r="H20" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>1.7064846416382253E-2</v>
+        <v>6.7796610169491525E-2</v>
       </c>
       <c r="I20" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3801,25 +3940,25 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" s="5">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E21" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="H21" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.25</v>
+        <v>0.21875</v>
       </c>
       <c r="I21" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3828,52 +3967,54 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="E22" s="5">
-        <v>3</v>
-      </c>
-      <c r="F22" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
       <c r="G22" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.96907216494845361</v>
+        <v>0.84</v>
       </c>
       <c r="H22" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>3.0927835051546393E-2</v>
+        <v>0.12</v>
       </c>
       <c r="I22" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
-        <v>27</v>
+        <v>8099</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D23" s="5">
-        <v>24</v>
+        <v>8093</v>
       </c>
       <c r="E23" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.88888888888888884</v>
+        <v>0.99925916779849366</v>
       </c>
       <c r="H23" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.1111111111111111</v>
+        <v>7.4083220150635877E-4</v>
       </c>
       <c r="I23" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3882,25 +4023,23 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="5">
-        <v>4</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="5">
         <v>3</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.42857142857142855</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3909,13 +4048,13 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D25" s="5">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E25" s="5">
         <v>2</v>
@@ -3923,11 +4062,11 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.92592592592592593</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="H25" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>7.407407407407407E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="I25" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3936,23 +4075,25 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="D26" s="5">
+        <v>41</v>
+      </c>
       <c r="E26" s="5">
         <v>2</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.95348837209302328</v>
       </c>
       <c r="H26" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="I26" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3961,25 +4102,23 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="5">
-        <v>40</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="5">
         <v>1</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.97560975609756095</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>2.4390243902439025E-2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -3988,25 +4127,23 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="5">
-        <v>11</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="5">
         <v>1</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0.91666666666666663</v>
+        <v>0</v>
       </c>
       <c r="H28" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
@@ -4040,38 +4177,40 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
-        <v>479</v>
+        <v>17</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5">
-        <v>479</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D30" s="5">
+        <v>16</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5"/>
       <c r="G30" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="H30" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="I30" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D31" s="5">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -4090,19 +4229,19 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D32" s="5">
+        <v>6</v>
+      </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="5">
-        <v>22</v>
-      </c>
+      <c r="F32" s="5"/>
       <c r="G32" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
@@ -4110,18 +4249,18 @@
       </c>
       <c r="I32" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D33" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -4140,15 +4279,15 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
@@ -4165,13 +4304,13 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -4190,13 +4329,13 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D36" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -4215,15 +4354,15 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
@@ -4240,15 +4379,15 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
@@ -4265,19 +4404,19 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="5">
+        <v>2</v>
+      </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="5">
-        <v>1</v>
-      </c>
+      <c r="F39" s="5"/>
       <c r="G39" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
@@ -4285,24 +4424,24 @@
       </c>
       <c r="I39" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
-        <v>1</v>
+        <v>502</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="F40" s="5">
+        <v>502</v>
+      </c>
       <c r="G40" s="3">
         <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="3">
         <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
@@ -4310,11 +4449,61 @@
       </c>
       <c r="I40" s="3">
         <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="5">
+        <v>3</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="3">
+        <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="3">
+        <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="3">
+        <f>Tabla16[[#This Row],[COMPLETE]]/Tabla16[[#This Row],[WOS]]</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
+        <f>Tabla16[[#This Row],[FAILED]]/Tabla16[[#This Row],[WOS]]</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <f>Tabla16[[#This Row],[TIMEOUT]]/Tabla16[[#This Row],[WOS]]</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H3:I40">
+  <conditionalFormatting sqref="H3:I42">
     <cfRule type="colorScale" priority="349">
       <colorScale>
         <cfvo type="min"/>
@@ -4326,7 +4515,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G40">
+  <conditionalFormatting sqref="G3:G42">
     <cfRule type="colorScale" priority="350">
       <colorScale>
         <cfvo type="min"/>
@@ -4338,7 +4527,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G40">
+  <conditionalFormatting sqref="G2:G42">
     <cfRule type="colorScale" priority="351">
       <colorScale>
         <cfvo type="min"/>
@@ -4360,10 +4549,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C12"/>
+      <selection activeCell="B9" sqref="B9:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4382,23 +4571,23 @@
     </row>
     <row r="3" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8">
-        <v>1478</v>
+        <v>330</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>55</v>
@@ -4406,7 +4595,7 @@
     </row>
     <row r="6" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>56</v>
@@ -4414,50 +4603,18 @@
     </row>
     <row r="7" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10">
-        <v>2</v>
-      </c>
-      <c r="C9" s="11" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4471,10 +4628,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C7"/>
+      <selection activeCell="B3" sqref="B3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4492,21 +4649,54 @@
     </row>
     <row r="3" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8">
-        <v>279</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>61</v>
+        <v>288</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10">
-        <v>53</v>
-      </c>
-      <c r="C4" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="10">
+        <v>23</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>62</v>
       </c>
     </row>
+    <row r="7" spans="2:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="15"/>
+      <c r="C8" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -4519,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4541,10 +4731,10 @@
     </row>
     <row r="3" spans="2:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8">
-        <v>324</v>
+        <v>435</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
